--- a/blast_hit.xlsx
+++ b/blast_hit.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Desktop\Emerson_Lab_Work\Fish-genome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5C17A6-3E47-4900-BED8-8A01D321AE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B81EBE-5F40-4B56-A3DF-9C320766BAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C330FA8C-1742-4065-BC0C-4BAB477AE203}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C330FA8C-1742-4065-BC0C-4BAB477AE203}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="organized" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="196">
   <si>
     <t>XM_040183280.1</t>
   </si>
@@ -121,14 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>methionyl aminopeptidase type 1D (mitochondrial) (metap1d)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XM_040172374.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ntLink_19</t>
   </si>
   <si>
@@ -183,18 +176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X-prolyl aminopeptidase 3, mitochondrial (xpnpep3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ntLink_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XM_040190265.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>XM_040185469.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,14 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XM_040167119.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ntLink_67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>alpha-amylase-like</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,10 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-----</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>XM_040172089.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -655,13 +624,165 @@
   <si>
     <t>Overlapping 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENSGACT00000024004.2</t>
+  </si>
+  <si>
+    <t>ENSGACT00000034546.1</t>
+  </si>
+  <si>
+    <t>carboxyl ester lipase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carboxyl ester lipase CEL-203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENSGACT00000023394.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENSGACT00000023415.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAculeatus_UGA_version5:CM029283.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrb1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrb2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short hit at 515251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zebrafish (GRCz11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENSDART00000060196.8</t>
+  </si>
+  <si>
+    <t>anpepa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENSDART00000167730.2</t>
+  </si>
+  <si>
+    <t>anpepb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENSDART00000175736.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anpepEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENSDART00000172147.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anpepNa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENSDART00000128183.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anpepNb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENSGACT00000074381.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAculeatus_UGA_version5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anpep Ey-like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amylase alpha 2A (amy2a)</t>
+  </si>
+  <si>
+    <t>overlaps with CEL-like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHI-A: acidic mammalian chitinase-like (LOC120835533)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEL&amp;CEL-like</t>
+  </si>
+  <si>
+    <t>chitinase</t>
+  </si>
+  <si>
+    <t>ctrb2</t>
+  </si>
+  <si>
+    <t>pepsin A-like</t>
+  </si>
+  <si>
+    <t>trypsin-1&amp;2&amp;3&amp;like</t>
+  </si>
+  <si>
+    <t>anpep Ey-like</t>
+  </si>
+  <si>
+    <t>anpepa</t>
+  </si>
+  <si>
+    <t>anpepb</t>
+  </si>
+  <si>
+    <t>anpepEY</t>
+  </si>
+  <si>
+    <t>anpepNa</t>
+  </si>
+  <si>
+    <t>anpepNb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -693,6 +814,15 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -729,14 +859,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -752,6 +879,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,15 +1224,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2CAEAD-B83D-44CA-8BD5-AF10163804AA}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.109375" style="1" bestFit="1" customWidth="1"/>
@@ -1129,7 +1265,7 @@
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1249,13 +1385,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
@@ -1264,10 +1400,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>300549</v>
+        <v>11725639</v>
       </c>
       <c r="G7" s="1">
-        <v>302980</v>
+        <v>11728457</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1278,65 +1414,65 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>11725639</v>
+        <v>10247352</v>
       </c>
       <c r="G8" s="1">
-        <v>11728457</v>
+        <v>10255083</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>10247352</v>
+        <v>16066749</v>
       </c>
       <c r="G9" s="1">
-        <v>10255083</v>
+        <v>16075970</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>16066749</v>
+        <v>21371630</v>
       </c>
       <c r="G10" s="1">
-        <v>16075970</v>
+        <v>21375019</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1350,21 +1486,21 @@
         <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>21371630</v>
+        <v>25994606</v>
       </c>
       <c r="G11" s="1">
-        <v>21375019</v>
+        <v>26006680</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -1373,62 +1509,62 @@
         <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>25994606</v>
+        <v>8512089</v>
       </c>
       <c r="G12" s="1">
-        <v>26006680</v>
+        <v>8519780</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>7053483</v>
+        <v>17284024</v>
       </c>
       <c r="G13" s="1">
-        <v>7058890</v>
+        <v>17302382</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>8512089</v>
+        <v>21290728</v>
       </c>
       <c r="G14" s="1">
-        <v>8519780</v>
+        <v>21298527</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1442,21 +1578,21 @@
         <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>17284024</v>
+        <v>1265757</v>
       </c>
       <c r="G15" s="1">
-        <v>17302382</v>
+        <v>1280497</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -1465,50 +1601,50 @@
         <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>21290728</v>
+        <v>11427601</v>
       </c>
       <c r="G16" s="1">
-        <v>21298527</v>
+        <v>11432357</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>1265757</v>
+        <v>2356638</v>
       </c>
       <c r="G17" s="1">
-        <v>1280497</v>
+        <v>2370045</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>56</v>
@@ -1517,1111 +1653,1932 @@
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>11427601</v>
+        <v>9488323</v>
       </c>
       <c r="G18" s="1">
-        <v>11432357</v>
+        <v>9492441</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4897479</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4901172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2356638</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2370045</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4895480</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4901190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>9488323</v>
-      </c>
-      <c r="G20" s="1">
-        <v>9492441</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="D21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>66</v>
+      <c r="F21" s="3">
+        <v>16270425</v>
+      </c>
+      <c r="G21" s="3">
+        <v>16278683</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="3">
+        <v>16289036</v>
+      </c>
+      <c r="G22" s="3">
+        <v>16298335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4897479</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4901172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" s="3">
-        <v>4895480</v>
-      </c>
-      <c r="G23" s="3">
-        <v>4901190</v>
+      <c r="D23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="4">
-        <v>16270425</v>
-      </c>
-      <c r="G24" s="4">
-        <v>16278683</v>
+      <c r="A24" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>16284720</v>
+      </c>
+      <c r="G24" s="3">
+        <v>16299137</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="4">
-        <v>16289036</v>
-      </c>
-      <c r="G25" s="4">
-        <v>16298335</v>
+      <c r="A25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>16270232</v>
+      </c>
+      <c r="G25" s="3">
+        <v>16278801</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>76</v>
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>11213804</v>
+      </c>
+      <c r="G26" s="1">
+        <v>11221241</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="1">
-        <v>11213804</v>
-      </c>
-      <c r="G27" s="1">
-        <v>11221241</v>
+        <v>68</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>76</v>
+      <c r="F29" s="1">
+        <v>2934729</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2942269</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
       </c>
-      <c r="F30" s="1">
-        <v>2934729</v>
-      </c>
-      <c r="G30" s="1">
-        <v>2942269</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>88</v>
+      <c r="F30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>88</v>
+      <c r="F31" s="1">
+        <v>12037351</v>
+      </c>
+      <c r="G31" s="1">
+        <v>12037205</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>12037351</v>
+        <v>2935959</v>
       </c>
       <c r="G32" s="1">
-        <v>12037205</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>88</v>
+        <v>2935774</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>2935959</v>
+        <v>2957153</v>
       </c>
       <c r="G33" s="1">
-        <v>2935774</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>88</v>
+        <v>2956963</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
       </c>
-      <c r="F34" s="1">
-        <v>2957153</v>
-      </c>
-      <c r="G34" s="1">
-        <v>2956963</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>88</v>
+      <c r="F34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" s="1">
+        <v>12034785</v>
+      </c>
+      <c r="G35" s="1">
+        <v>12037930</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="1">
+        <v>12027468</v>
+      </c>
+      <c r="G36" s="1">
+        <v>12030559</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="1">
+        <v>11923489</v>
+      </c>
+      <c r="G37" s="1">
+        <v>11926427</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F36" s="7">
-        <v>12034785</v>
-      </c>
-      <c r="G36" s="7">
-        <v>12037930</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F37" s="7">
-        <v>12027468</v>
-      </c>
-      <c r="G37" s="7">
-        <v>12030559</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F38" s="7">
-        <v>11923489</v>
-      </c>
-      <c r="G38" s="7">
-        <v>11926427</v>
+      <c r="B38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="3">
+        <v>11213678</v>
+      </c>
+      <c r="G38" s="3">
+        <v>11216166</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F39" s="4">
-        <v>11213678</v>
-      </c>
-      <c r="G39" s="4">
-        <v>11216166</v>
+      <c r="A39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="3">
+        <v>11221571</v>
+      </c>
+      <c r="G39" s="3">
+        <v>11219098</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F40" s="4">
-        <v>11221571</v>
-      </c>
-      <c r="G40" s="4">
-        <v>11219098</v>
+      <c r="A40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2957167</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2956962</v>
+      </c>
+      <c r="H40" s="5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>158</v>
+        <v>56</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>2957167</v>
+        <v>7580725</v>
       </c>
       <c r="G41" s="1">
-        <v>2956962</v>
-      </c>
-      <c r="H41" s="6" t="b">
-        <v>1</v>
+        <v>7584921</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>7580725</v>
-      </c>
-      <c r="G42" s="1">
-        <v>7584921</v>
+        <v>0</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>76</v>
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>514442</v>
+      </c>
+      <c r="G45" s="1">
+        <v>514260</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46" s="1">
-        <v>514442</v>
+        <v>506620</v>
       </c>
       <c r="G46" s="1">
-        <v>514260</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>88</v>
+        <v>506434</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
+        <v>122</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="F47" s="1">
-        <v>506620</v>
+        <v>30263701</v>
       </c>
       <c r="G47" s="1">
-        <v>506434</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>88</v>
+        <v>30263673</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F48" s="1">
-        <v>30263701</v>
+        <v>506620</v>
       </c>
       <c r="G48" s="1">
-        <v>30263673</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>131</v>
+        <v>506434</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F49" s="1">
-        <v>506620</v>
+        <v>514165</v>
       </c>
       <c r="G49" s="1">
-        <v>506434</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>88</v>
+        <v>514260</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>87</v>
+        <v>117</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
       </c>
       <c r="F50" s="1">
-        <v>514165</v>
+        <v>505797</v>
       </c>
       <c r="G50" s="1">
-        <v>514260</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>88</v>
+        <v>507175</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
       </c>
       <c r="F51" s="1">
-        <v>517918</v>
+        <v>515080</v>
       </c>
       <c r="G51" s="1">
-        <v>519814</v>
-      </c>
+        <v>513794</v>
+      </c>
+      <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
       </c>
       <c r="F52" s="1">
-        <v>4060144</v>
+        <v>517918</v>
       </c>
       <c r="G52" s="1">
-        <v>4062388</v>
+        <v>519814</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
       </c>
       <c r="F53" s="1">
+        <v>4060144</v>
+      </c>
+      <c r="G53" s="1">
+        <v>4062388</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
         <v>13613800</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G54" s="1">
         <v>13614727</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F54" s="3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F55" s="2">
         <v>6884095</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G55" s="2">
         <v>6885512</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F55" s="3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" s="2">
         <v>6888491</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G56" s="2">
         <v>6887110</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F56" s="3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" s="2">
         <v>6890725</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G57" s="2">
         <v>6892106</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F57" s="3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" s="2">
         <v>6893904</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G58" s="2">
         <v>6895281</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E58" s="4">
+      <c r="H58" s="1">
+        <f>G58-F55</f>
+        <v>11186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" s="3">
         <v>2</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F59" s="3">
         <v>12736065</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G59" s="3">
         <v>12734965</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E59" s="4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="3">
         <v>2</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F60" s="3">
         <v>12739119</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G60" s="3">
         <v>12737983</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1">
-        <v>6877769</v>
-      </c>
-      <c r="G60" s="1">
-        <v>6895007</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>6872378</v>
+        <v>6877769</v>
       </c>
       <c r="G61" s="1">
-        <v>6873854</v>
+        <v>6895007</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
       </c>
       <c r="F62" s="1">
-        <v>6871157</v>
+        <v>6872378</v>
       </c>
       <c r="G62" s="1">
-        <v>6868915</v>
+        <v>6873854</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>6871157</v>
+      </c>
+      <c r="G63" s="1">
+        <v>6868915</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>12639042</v>
+      </c>
+      <c r="G64" s="1">
+        <v>12638402</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1661262</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1670515</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27235E4-36E5-466C-A9ED-1635B8A26E78}">
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="7"/>
+    <col min="8" max="8" width="32.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F1" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="D4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>7</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1">
-        <v>12639042</v>
-      </c>
-      <c r="G63" s="1">
-        <v>12638402</v>
+      <c r="B18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>9</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="K25" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/blast_hit.xlsx
+++ b/blast_hit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Desktop\Emerson_Lab_Work\Fish-genome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B81EBE-5F40-4B56-A3DF-9C320766BAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4268085D-8CCB-4CD8-937E-4B247718FC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C330FA8C-1742-4065-BC0C-4BAB477AE203}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="201">
   <si>
     <t>XM_040183280.1</t>
   </si>
@@ -745,21 +745,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CEL&amp;CEL-like</t>
-  </si>
-  <si>
-    <t>chitinase</t>
-  </si>
-  <si>
     <t>ctrb2</t>
   </si>
   <si>
     <t>pepsin A-like</t>
   </si>
   <si>
-    <t>trypsin-1&amp;2&amp;3&amp;like</t>
-  </si>
-  <si>
     <t>anpep Ey-like</t>
   </si>
   <si>
@@ -776,13 +767,45 @@
   </si>
   <si>
     <t>anpepNb</t>
+  </si>
+  <si>
+    <t>Phytichthys chirus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anoplarchus purpurescens</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cebidichthys violaceus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pepsin, all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trypsin, all (1&amp;2&amp;3&amp;like)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chymotrypsin (ctr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chitinase, all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lipase, CEL, all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -824,6 +847,15 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -859,7 +891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,16 +910,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2946,638 +2975,704 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27235E4-36E5-466C-A9ED-1635B8A26E78}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="7"/>
-    <col min="8" max="8" width="32.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="5"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="5"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>7</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="5"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="1">
         <v>4</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
         <v>9</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="1">
         <v>0</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="1">
         <v>0</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="1">
         <v>0</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G22" s="6"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="D23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="1">
         <v>0</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G23" s="6"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="D24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="1">
         <v>0</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G24" s="6"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="K25" s="7" t="s">
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="K25" t="s">
         <v>183</v>
       </c>
     </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
     <row r="28" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B28" s="9">
-        <v>1</v>
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="7">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8">
+        <v>6</v>
+      </c>
+      <c r="D29" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="7">
+        <v>9</v>
+      </c>
+      <c r="C30" s="8">
+        <v>10</v>
+      </c>
+      <c r="D30" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="7">
+        <v>3</v>
+      </c>
+      <c r="C31" s="8">
+        <v>4</v>
+      </c>
+      <c r="D31" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="7">
+        <v>7</v>
+      </c>
+      <c r="C32" s="8">
+        <v>7</v>
+      </c>
+      <c r="D32" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="7">
+        <v>4</v>
+      </c>
+      <c r="C33" s="8">
+        <v>4</v>
+      </c>
+      <c r="D33" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="B36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B30" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="B37" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B31" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="B40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+      <c r="B41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B34" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="B42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B43" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+    <row r="44" spans="1:4" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B38" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B39" s="9">
+      <c r="B44" s="7">
         <v>0</v>
       </c>
     </row>

--- a/blast_hit.xlsx
+++ b/blast_hit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Desktop\Emerson_Lab_Work\Fish-genome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4268085D-8CCB-4CD8-937E-4B247718FC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956428AE-B342-444C-B592-337CD5F50DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C330FA8C-1742-4065-BC0C-4BAB477AE203}"/>
   </bookViews>
@@ -2978,7 +2978,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
